--- a/test/helpers/sample.xlsx
+++ b/test/helpers/sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dami\Desktop\porcupine_ruby\test\helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\c\porcupine\test\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,19 +87,19 @@
     <t>12/24/1154</t>
   </si>
   <si>
-    <t>hjabia</t>
-  </si>
-  <si>
-    <t>ima</t>
-  </si>
-  <si>
-    <t>vez</t>
-  </si>
-  <si>
-    <t>un pato</t>
-  </si>
-  <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>baz</t>
+  </si>
+  <si>
+    <t>qux</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -905,7 +905,7 @@
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="E23" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -938,22 +938,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/test/helpers/sample.xlsx
+++ b/test/helpers/sample.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>General</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>qux</t>
+  </si>
+  <si>
+    <t>𐐀34</t>
+  </si>
+  <si>
+    <t>foo你bar好qaz</t>
   </si>
 </sst>
 </file>
@@ -553,9 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -706,7 +710,9 @@
       <c r="I4">
         <v>1E-3</v>
       </c>
-      <c r="J4" s="47"/>
+      <c r="J4" s="47" t="s">
+        <v>23</v>
+      </c>
       <c r="K4" s="50">
         <v>543415635644</v>
       </c>
@@ -724,7 +730,9 @@
       <c r="H5" s="39">
         <v>1.5</v>
       </c>
-      <c r="J5" s="47"/>
+      <c r="J5" s="47" t="s">
+        <v>24</v>
+      </c>
       <c r="K5" s="51">
         <v>34580585</v>
       </c>

--- a/test/helpers/sample.xlsx
+++ b/test/helpers/sample.xlsx
@@ -559,7 +559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -874,58 +876,59 @@
         <v>43458</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="E17" s="24">
         <v>43458</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="E18" s="25">
         <v>43458</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="E19" s="26">
         <v>43458</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="E20">
         <v>43458</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="E21" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="E22" s="13">
         <v>2958458</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="E23" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="J26" s="47"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
     </row>
   </sheetData>

--- a/test/helpers/sample.xlsx
+++ b/test/helpers/sample.xlsx
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,36 +939,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
+      <c r="G5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
